--- a/sample_manifest.xlsx
+++ b/sample_manifest.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10823"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/meshinchi_s/workingDir/scripts/lwallac2/Python/RNAseq_Pipeline/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56359B0B-060A-0D4B-9180-5B361F036C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3424,8 +3430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3488,13 +3494,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3532,7 +3546,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3566,6 +3580,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3600,9 +3615,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3775,14 +3791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3817,7 +3838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3908,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3922,7 +3943,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3992,7 +4013,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -4027,7 +4048,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -4062,7 +4083,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4097,7 +4118,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4188,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4202,7 +4223,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -4272,7 +4293,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4307,7 +4328,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4342,7 +4363,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -4377,7 +4398,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4412,7 +4433,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -4447,7 +4468,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -4482,7 +4503,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4517,7 +4538,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4573,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -4587,7 +4608,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4622,7 +4643,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -4657,7 +4678,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -4692,7 +4713,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -4727,7 +4748,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4762,7 +4783,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -4797,7 +4818,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -4832,7 +4853,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -4867,7 +4888,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -4902,7 +4923,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -4937,7 +4958,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -4972,7 +4993,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -5007,7 +5028,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -5042,7 +5063,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -5077,7 +5098,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -5112,7 +5133,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -5147,7 +5168,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -5182,7 +5203,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -5217,7 +5238,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -5252,7 +5273,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -5287,7 +5308,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -5322,7 +5343,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -5357,7 +5378,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -5392,7 +5413,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -5427,7 +5448,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -5462,7 +5483,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -5497,7 +5518,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -5532,7 +5553,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -5567,7 +5588,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -5602,7 +5623,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -5637,7 +5658,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -5672,7 +5693,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -5707,7 +5728,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -5742,7 +5763,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -5777,7 +5798,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -5812,7 +5833,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -5847,7 +5868,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -5882,7 +5903,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -5917,7 +5938,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -5952,7 +5973,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -5987,7 +6008,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -6022,7 +6043,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -6057,7 +6078,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -6092,7 +6113,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -6127,7 +6148,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -6162,7 +6183,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -6197,7 +6218,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -6232,7 +6253,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -6267,7 +6288,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -6302,7 +6323,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -6337,7 +6358,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
@@ -6372,7 +6393,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -6407,7 +6428,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -6442,7 +6463,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
@@ -6477,7 +6498,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -6512,7 +6533,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
@@ -6547,7 +6568,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
@@ -6582,7 +6603,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
@@ -6617,7 +6638,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
@@ -6652,7 +6673,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
@@ -6687,7 +6708,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
@@ -6722,7 +6743,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
@@ -6757,7 +6778,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
@@ -6792,7 +6813,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -6827,7 +6848,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
@@ -6862,7 +6883,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
@@ -6897,7 +6918,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
@@ -6932,7 +6953,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
@@ -6967,7 +6988,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -7002,7 +7023,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
@@ -7037,7 +7058,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
@@ -7072,7 +7093,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
@@ -7107,7 +7128,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
@@ -7142,7 +7163,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
@@ -7177,7 +7198,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
@@ -7212,7 +7233,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -7247,7 +7268,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
@@ -7282,7 +7303,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
@@ -7317,7 +7338,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
@@ -7352,7 +7373,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
@@ -7387,7 +7408,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
@@ -7422,7 +7443,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
@@ -7457,7 +7478,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
@@ -7492,7 +7513,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -7562,7 +7583,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
@@ -7597,7 +7618,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
@@ -7632,7 +7653,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
@@ -7667,7 +7688,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
@@ -7702,7 +7723,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
@@ -7737,7 +7758,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
@@ -7772,7 +7793,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
@@ -7807,7 +7828,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>125</v>
       </c>
@@ -7842,7 +7863,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -7912,7 +7933,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -7947,7 +7968,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -7982,7 +8003,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
@@ -8017,7 +8038,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -8052,7 +8073,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>132</v>
       </c>
@@ -8087,7 +8108,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>133</v>
       </c>
@@ -8122,7 +8143,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>134</v>
       </c>
@@ -8157,7 +8178,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>135</v>
       </c>
@@ -8192,7 +8213,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>136</v>
       </c>
@@ -8227,7 +8248,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>137</v>
       </c>
@@ -8262,7 +8283,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>138</v>
       </c>
@@ -8297,7 +8318,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>139</v>
       </c>
@@ -8332,7 +8353,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>140</v>
       </c>
@@ -8367,7 +8388,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>141</v>
       </c>
@@ -8402,7 +8423,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>142</v>
       </c>
@@ -8437,7 +8458,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>143</v>
       </c>
@@ -8472,7 +8493,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>144</v>
       </c>
@@ -8507,7 +8528,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>145</v>
       </c>
@@ -8542,7 +8563,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
@@ -8577,7 +8598,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>147</v>
       </c>
@@ -8612,7 +8633,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>148</v>
       </c>
@@ -8647,7 +8668,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>149</v>
       </c>
@@ -8682,7 +8703,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>150</v>
       </c>
@@ -8717,7 +8738,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>151</v>
       </c>
@@ -8752,7 +8773,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
@@ -8787,7 +8808,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>153</v>
       </c>
@@ -8822,7 +8843,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>154</v>
       </c>
@@ -8857,7 +8878,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>155</v>
       </c>
@@ -8892,7 +8913,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>156</v>
       </c>
@@ -8927,7 +8948,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>157</v>
       </c>
@@ -8962,7 +8983,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>158</v>
       </c>
@@ -8997,7 +9018,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>159</v>
       </c>
@@ -9032,7 +9053,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>160</v>
       </c>
@@ -9067,7 +9088,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>161</v>
       </c>
@@ -9102,7 +9123,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>162</v>
       </c>
@@ -9137,7 +9158,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>163</v>
       </c>
@@ -9172,7 +9193,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>164</v>
       </c>
@@ -9207,7 +9228,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
@@ -9242,7 +9263,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>166</v>
       </c>
@@ -9277,7 +9298,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -9312,7 +9333,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>168</v>
       </c>
@@ -9347,7 +9368,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>169</v>
       </c>
@@ -9382,7 +9403,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
@@ -9417,7 +9438,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
@@ -9452,7 +9473,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>172</v>
       </c>
@@ -9487,7 +9508,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>173</v>
       </c>
@@ -9522,7 +9543,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>174</v>
       </c>
@@ -9557,7 +9578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>175</v>
       </c>
@@ -9592,7 +9613,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>176</v>
       </c>
@@ -9627,7 +9648,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>177</v>
       </c>
@@ -9662,7 +9683,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>178</v>
       </c>
@@ -9697,7 +9718,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>179</v>
       </c>
@@ -9732,7 +9753,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>180</v>
       </c>
@@ -9767,7 +9788,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>181</v>
       </c>
@@ -9802,7 +9823,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>182</v>
       </c>
@@ -9837,7 +9858,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>183</v>
       </c>
@@ -9872,7 +9893,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>184</v>
       </c>
@@ -9907,7 +9928,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>185</v>
       </c>
@@ -9942,7 +9963,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>186</v>
       </c>
@@ -9977,7 +9998,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>187</v>
       </c>
@@ -10012,7 +10033,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>188</v>
       </c>
@@ -10047,7 +10068,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>189</v>
       </c>
@@ -10082,7 +10103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>190</v>
       </c>
@@ -10117,7 +10138,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>191</v>
       </c>
@@ -10152,7 +10173,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>192</v>
       </c>
@@ -10187,7 +10208,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>193</v>
       </c>
@@ -10222,7 +10243,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>194</v>
       </c>
@@ -10257,7 +10278,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>195</v>
       </c>
@@ -10292,7 +10313,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>196</v>
       </c>
@@ -10327,7 +10348,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>197</v>
       </c>
@@ -10362,7 +10383,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>198</v>
       </c>
@@ -10397,7 +10418,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>199</v>
       </c>
@@ -10432,7 +10453,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
@@ -10467,7 +10488,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>201</v>
       </c>
@@ -10502,7 +10523,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>202</v>
       </c>
@@ -10537,7 +10558,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>203</v>
       </c>
@@ -10572,7 +10593,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>204</v>
       </c>
@@ -10607,7 +10628,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>205</v>
       </c>
@@ -10642,7 +10663,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>206</v>
       </c>
@@ -10677,7 +10698,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>207</v>
       </c>
@@ -10712,7 +10733,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>208</v>
       </c>
@@ -10747,7 +10768,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>209</v>
       </c>
@@ -10782,7 +10803,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>210</v>
       </c>
@@ -10817,7 +10838,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>211</v>
       </c>
@@ -10852,7 +10873,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>212</v>
       </c>
@@ -10887,7 +10908,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>213</v>
       </c>
@@ -10922,7 +10943,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>214</v>
       </c>
@@ -10957,7 +10978,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>215</v>
       </c>
@@ -10992,7 +11013,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>216</v>
       </c>
@@ -11027,7 +11048,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>217</v>
       </c>
@@ -11062,7 +11083,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>218</v>
       </c>
@@ -11097,7 +11118,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>219</v>
       </c>
@@ -11132,7 +11153,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>220</v>
       </c>
@@ -11167,7 +11188,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>221</v>
       </c>
@@ -11202,7 +11223,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>222</v>
       </c>
@@ -11237,7 +11258,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>223</v>
       </c>
@@ -11272,7 +11293,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>224</v>
       </c>
@@ -11307,7 +11328,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>225</v>
       </c>
@@ -11342,7 +11363,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>226</v>
       </c>
@@ -11377,7 +11398,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>227</v>
       </c>
@@ -11412,7 +11433,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>228</v>
       </c>
@@ -11447,7 +11468,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>229</v>
       </c>
@@ -11482,7 +11503,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>230</v>
       </c>
@@ -11517,7 +11538,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>231</v>
       </c>
@@ -11552,7 +11573,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>232</v>
       </c>
@@ -11587,7 +11608,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>233</v>
       </c>
@@ -11622,7 +11643,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>234</v>
       </c>
@@ -11657,7 +11678,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>235</v>
       </c>
@@ -11692,7 +11713,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>236</v>
       </c>
@@ -11727,7 +11748,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>237</v>
       </c>
@@ -11762,7 +11783,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>238</v>
       </c>
@@ -11797,7 +11818,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>239</v>
       </c>
@@ -11832,7 +11853,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>240</v>
       </c>
@@ -11867,7 +11888,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>241</v>
       </c>
@@ -11902,7 +11923,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>242</v>
       </c>
@@ -11937,7 +11958,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>243</v>
       </c>
@@ -11972,7 +11993,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>244</v>
       </c>
@@ -12007,7 +12028,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>245</v>
       </c>
@@ -12042,7 +12063,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>246</v>
       </c>
@@ -12077,7 +12098,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>247</v>
       </c>
@@ -12112,7 +12133,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>248</v>
       </c>
@@ -12147,7 +12168,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>249</v>
       </c>
@@ -12182,7 +12203,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>250</v>
       </c>
@@ -12217,7 +12238,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>251</v>
       </c>
@@ -12252,7 +12273,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>252</v>
       </c>
@@ -12287,7 +12308,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>253</v>
       </c>
@@ -12322,7 +12343,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>254</v>
       </c>
@@ -12357,7 +12378,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>255</v>
       </c>
@@ -12392,7 +12413,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>256</v>
       </c>
@@ -12427,7 +12448,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>257</v>
       </c>
@@ -12462,7 +12483,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
@@ -12497,7 +12518,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>259</v>
       </c>
@@ -12532,7 +12553,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>260</v>
       </c>
@@ -12567,7 +12588,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>261</v>
       </c>
@@ -12602,7 +12623,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>262</v>
       </c>
@@ -12637,7 +12658,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>263</v>
       </c>
@@ -12672,7 +12693,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>264</v>
       </c>
@@ -12707,7 +12728,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>265</v>
       </c>
@@ -12742,7 +12763,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>266</v>
       </c>
@@ -12777,7 +12798,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>267</v>
       </c>
@@ -12812,7 +12833,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
@@ -12847,7 +12868,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>269</v>
       </c>
@@ -12882,7 +12903,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>270</v>
       </c>
@@ -12917,7 +12938,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
@@ -12952,7 +12973,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
@@ -12987,7 +13008,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
@@ -13022,7 +13043,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
@@ -13057,7 +13078,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>275</v>
       </c>
@@ -13092,7 +13113,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>276</v>
       </c>
@@ -13127,7 +13148,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>277</v>
       </c>
@@ -13162,7 +13183,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>278</v>
       </c>
@@ -13197,7 +13218,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>279</v>
       </c>
@@ -13232,7 +13253,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>280</v>
       </c>
@@ -13267,7 +13288,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>281</v>
       </c>
@@ -13302,7 +13323,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>282</v>
       </c>
@@ -13337,7 +13358,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>283</v>
       </c>
@@ -13372,7 +13393,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>284</v>
       </c>
@@ -13407,7 +13428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>285</v>
       </c>
@@ -13442,7 +13463,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>286</v>
       </c>
@@ -13477,7 +13498,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>287</v>
       </c>
@@ -13512,7 +13533,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>288</v>
       </c>
@@ -13547,7 +13568,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>289</v>
       </c>
@@ -13582,7 +13603,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>290</v>
       </c>
@@ -13617,7 +13638,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>291</v>
       </c>
@@ -13652,7 +13673,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>292</v>
       </c>
@@ -13687,7 +13708,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>293</v>
       </c>
@@ -13722,7 +13743,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>294</v>
       </c>
@@ -13757,7 +13778,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>295</v>
       </c>
@@ -13792,7 +13813,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>296</v>
       </c>
@@ -13827,7 +13848,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>297</v>
       </c>
@@ -13862,7 +13883,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>298</v>
       </c>
@@ -13897,7 +13918,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>299</v>
       </c>
@@ -13932,7 +13953,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>300</v>
       </c>
@@ -13967,7 +13988,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>301</v>
       </c>
@@ -14002,7 +14023,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>302</v>
       </c>
@@ -14037,7 +14058,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>303</v>
       </c>
@@ -14072,7 +14093,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>304</v>
       </c>
@@ -14107,7 +14128,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
@@ -14142,7 +14163,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>306</v>
       </c>
@@ -14177,7 +14198,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>307</v>
       </c>
@@ -14212,7 +14233,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>308</v>
       </c>
@@ -14247,7 +14268,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>309</v>
       </c>
@@ -14282,7 +14303,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>310</v>
       </c>
@@ -14317,7 +14338,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
@@ -14352,7 +14373,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>312</v>
       </c>
@@ -14387,7 +14408,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>313</v>
       </c>
@@ -14422,7 +14443,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>314</v>
       </c>
@@ -14457,7 +14478,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>315</v>
       </c>
@@ -14492,7 +14513,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>316</v>
       </c>
@@ -14527,7 +14548,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
@@ -14562,7 +14583,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>318</v>
       </c>
@@ -14597,7 +14618,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
@@ -14632,7 +14653,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>320</v>
       </c>
@@ -14667,7 +14688,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
@@ -14702,7 +14723,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
@@ -14737,7 +14758,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>323</v>
       </c>
@@ -14772,7 +14793,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>324</v>
       </c>
@@ -14807,7 +14828,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>325</v>
       </c>
@@ -14842,7 +14863,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>326</v>
       </c>
@@ -14877,7 +14898,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>327</v>
       </c>
@@ -14912,7 +14933,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>328</v>
       </c>
@@ -14947,7 +14968,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>329</v>
       </c>
@@ -14982,7 +15003,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
@@ -15017,7 +15038,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
@@ -15052,7 +15073,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
@@ -15087,7 +15108,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>333</v>
       </c>
@@ -15122,7 +15143,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>334</v>
       </c>
@@ -15157,7 +15178,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
@@ -15192,7 +15213,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>336</v>
       </c>
@@ -15227,7 +15248,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>337</v>
       </c>
@@ -15262,7 +15283,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
@@ -15297,7 +15318,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>339</v>
       </c>
@@ -15332,7 +15353,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>340</v>
       </c>
@@ -15367,7 +15388,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>341</v>
       </c>
@@ -15402,7 +15423,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>342</v>
       </c>
@@ -15437,7 +15458,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>343</v>
       </c>
@@ -15472,7 +15493,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>344</v>
       </c>
@@ -15507,7 +15528,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>345</v>
       </c>
@@ -15542,7 +15563,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>346</v>
       </c>
@@ -15577,7 +15598,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>347</v>
       </c>
@@ -15612,7 +15633,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>348</v>
       </c>
@@ -15647,7 +15668,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>349</v>
       </c>
@@ -15682,7 +15703,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>350</v>
       </c>
@@ -15717,7 +15738,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>351</v>
       </c>
@@ -15752,7 +15773,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>352</v>
       </c>
@@ -15787,7 +15808,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>353</v>
       </c>
@@ -15822,7 +15843,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>354</v>
       </c>
@@ -15857,7 +15878,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>355</v>
       </c>
@@ -15892,7 +15913,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>356</v>
       </c>
@@ -15927,7 +15948,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>357</v>
       </c>
@@ -15962,7 +15983,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>358</v>
       </c>
@@ -15997,7 +16018,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
@@ -16032,7 +16053,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>360</v>
       </c>
@@ -16067,7 +16088,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>361</v>
       </c>
@@ -16102,7 +16123,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>362</v>
       </c>
@@ -16137,7 +16158,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>363</v>
       </c>
@@ -16172,7 +16193,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>364</v>
       </c>
@@ -16207,7 +16228,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>365</v>
       </c>
@@ -16242,7 +16263,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>366</v>
       </c>
@@ -16277,7 +16298,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>367</v>
       </c>
@@ -16312,7 +16333,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>368</v>
       </c>
@@ -16347,7 +16368,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>369</v>
       </c>
@@ -16382,7 +16403,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
@@ -16417,7 +16438,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>371</v>
       </c>
@@ -16452,7 +16473,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>372</v>
       </c>
@@ -16487,7 +16508,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>373</v>
       </c>
@@ -16522,7 +16543,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>374</v>
       </c>
@@ -16557,7 +16578,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>375</v>
       </c>
@@ -16592,7 +16613,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>376</v>
       </c>
@@ -16627,7 +16648,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>377</v>
       </c>
